--- a/outputs/c/_alumFoil_both.xlsx
+++ b/outputs/c/_alumFoil_both.xlsx
@@ -718,7 +718,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I1" sqref="I1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/outputs/c/_alumFoil_both.xlsx
+++ b/outputs/c/_alumFoil_both.xlsx
@@ -45,9 +45,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>39M 38S</t>
   </si>
   <si>
-    <t>oven</t>
-  </si>
-  <si>
     <t>retrieve</t>
   </si>
   <si>
@@ -381,16 +375,22 @@
     <t>manipulate</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>roll</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>participant</t>
+  </si>
+  <si>
+    <t>activity_1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
+  </si>
+  <si>
+    <t>stove</t>
   </si>
 </sst>
 </file>
@@ -718,14 +718,14 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1048576"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>122</v>
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>99</v>
@@ -784,19 +784,19 @@
         <v>1204</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>465</v>
@@ -822,19 +822,19 @@
         <v>2378</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
@@ -860,19 +860,19 @@
         <v>190</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>88</v>
@@ -898,19 +898,19 @@
         <v>682</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>142</v>
@@ -936,22 +936,22 @@
         <v>990</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>55</v>
@@ -977,22 +977,22 @@
         <v>2000</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>790</v>
@@ -1018,19 +1018,19 @@
         <v>4696</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1041,25 +1041,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>94</v>
@@ -1082,10 +1082,10 @@
         <v>1142</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>96</v>
@@ -1108,10 +1108,10 @@
         <v>1184</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1122,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>121</v>
@@ -1134,10 +1134,10 @@
         <v>4226</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>310</v>
@@ -1160,10 +1160,10 @@
         <v>1480</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>315</v>
@@ -1186,10 +1186,10 @@
         <v>1492</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>319</v>
@@ -1212,10 +1212,10 @@
         <v>1500</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>382</v>
@@ -1238,10 +1238,10 @@
         <v>1992</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>384</v>
@@ -1264,10 +1264,10 @@
         <v>2002</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1278,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>469</v>
@@ -1290,10 +1290,10 @@
         <v>2512</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>512</v>
@@ -1316,10 +1316,10 @@
         <v>3004</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1342,10 +1342,10 @@
         <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>12</v>
@@ -1368,10 +1368,10 @@
         <v>118</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
         <v>16</v>
@@ -1394,10 +1394,10 @@
         <v>130</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -1420,10 +1420,10 @@
         <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
         <v>26</v>
@@ -1446,10 +1446,10 @@
         <v>164</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>34</v>
@@ -1472,10 +1472,10 @@
         <v>246</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
         <v>42</v>
@@ -1498,10 +1498,10 @@
         <v>288</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>50</v>
@@ -1524,10 +1524,10 @@
         <v>366</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1538,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1">
         <v>62</v>
@@ -1550,10 +1550,10 @@
         <v>434</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>69</v>
@@ -1576,10 +1576,10 @@
         <v>482</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1590,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>72</v>
@@ -1602,10 +1602,10 @@
         <v>490</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1616,7 +1616,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
         <v>98</v>
@@ -1628,10 +1628,10 @@
         <v>758</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <v>107</v>
@@ -1654,10 +1654,10 @@
         <v>844</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1668,7 +1668,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <v>113</v>
@@ -1680,10 +1680,10 @@
         <v>864</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>118</v>
@@ -1706,10 +1706,10 @@
         <v>874</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
         <v>122</v>
@@ -1732,10 +1732,10 @@
         <v>880</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1746,7 +1746,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>126</v>
@@ -1758,10 +1758,10 @@
         <v>894</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1">
         <v>130</v>
@@ -1784,10 +1784,10 @@
         <v>924</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1">
         <v>137</v>
@@ -1810,10 +1810,10 @@
         <v>970</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1824,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
         <v>149</v>
@@ -1836,10 +1836,10 @@
         <v>1048</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1">
         <v>152</v>
@@ -1862,10 +1862,10 @@
         <v>1086</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1876,7 +1876,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1">
         <v>171</v>
@@ -1888,10 +1888,10 @@
         <v>1336</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1902,7 +1902,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1">
         <v>57</v>
@@ -1914,10 +1914,10 @@
         <v>2004</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1928,7 +1928,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1">
         <v>151</v>
@@ -1940,10 +1940,10 @@
         <v>2702</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44" s="1">
         <v>156</v>
@@ -1966,10 +1966,10 @@
         <v>2732</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1980,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D45" s="1">
         <v>159</v>
@@ -1992,10 +1992,10 @@
         <v>2742</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2006,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46" s="1">
         <v>162</v>
@@ -2018,10 +2018,10 @@
         <v>2754</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2032,7 +2032,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D47" s="1">
         <v>298</v>
@@ -2044,10 +2044,10 @@
         <v>3922</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1">
         <v>300</v>
@@ -2070,10 +2070,10 @@
         <v>3932</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2084,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49" s="1">
         <v>460</v>
@@ -2096,10 +2096,10 @@
         <v>2366</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1">
         <v>524</v>
@@ -2122,10 +2122,10 @@
         <v>2544</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D51" s="1">
         <v>545</v>
@@ -2148,10 +2148,10 @@
         <v>2706</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2162,7 +2162,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D52" s="1">
         <v>609</v>
@@ -2174,10 +2174,10 @@
         <v>3184</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2188,7 +2188,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1">
         <v>757</v>
@@ -2200,10 +2200,10 @@
         <v>4498</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
